--- a/AtivosIndice.xlsx
+++ b/AtivosIndice.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
   <si>
     <t>TRAN PAULIST</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>PN EDJ</t>
-  </si>
-  <si>
-    <t>Quantidade Teórica Total</t>
   </si>
   <si>
     <t>Código </t>
@@ -483,8 +480,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -523,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -531,18 +528,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -865,14 +856,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:E72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="50.28515625" customWidth="1"/>
     <col min="2" max="2" width="36.140625" customWidth="1"/>
@@ -883,30 +874,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>25.424107783779998</v>
@@ -917,13 +908,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>42.277933360520002</v>
@@ -934,13 +925,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>10.307069157120001</v>
@@ -951,13 +942,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>62.333772571360001</v>
@@ -968,13 +959,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>13.564575132330001</v>
@@ -985,13 +976,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>67.979579261289999</v>
@@ -1002,13 +993,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>186.89289017022</v>
@@ -1019,13 +1010,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D9" s="2">
         <v>16.237145568470002</v>
@@ -1036,13 +1027,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
         <v>12.97182843407</v>
@@ -1053,13 +1044,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D11" s="2">
         <v>21.976087504230001</v>
@@ -1070,13 +1061,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>42.449709558910001</v>
@@ -1087,13 +1078,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
         <v>22.453099589000001</v>
@@ -1104,13 +1095,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>12.94432335172</v>
@@ -1121,13 +1112,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2">
         <v>48.188282306790001</v>
@@ -1138,13 +1129,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D16" s="2">
         <v>12.15475450578</v>
@@ -1155,13 +1146,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
         <v>14.28197192953</v>
@@ -1172,13 +1163,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>46.592822277810001</v>
@@ -1189,13 +1180,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2">
         <v>12.98786177981</v>
@@ -1206,13 +1197,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2">
         <v>7.2230570944799997</v>
@@ -1223,13 +1214,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D21" s="2">
         <v>13.92601177809</v>
@@ -1240,13 +1231,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
         <v>9.5393767501099997</v>
@@ -1257,13 +1248,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2">
         <v>97.456095260639998</v>
@@ -1274,13 +1265,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2">
         <v>18.72505216659</v>
@@ -1291,13 +1282,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2">
         <v>40.066565333520003</v>
@@ -1308,13 +1299,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2">
         <v>29.454499683190001</v>
@@ -1325,13 +1316,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2">
         <v>25.777458101250001</v>
@@ -1342,13 +1333,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>62.044246068870002</v>
@@ -1359,13 +1350,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="2">
         <v>39.030522675429999</v>
@@ -1376,13 +1367,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D30" s="2">
         <v>41.497784571910003</v>
@@ -1393,13 +1384,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="2">
         <v>21.3299241514</v>
@@ -1410,13 +1401,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2">
         <v>32.302201499410003</v>
@@ -1427,13 +1418,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="2">
         <v>15.852536052930001</v>
@@ -1444,13 +1435,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2">
         <v>236.63302785313999</v>
@@ -1461,13 +1452,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>70.039116337620001</v>
@@ -1478,13 +1469,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>13.80802218809</v>
@@ -1495,13 +1486,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2">
         <v>41.171128205759999</v>
@@ -1512,13 +1503,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2">
         <v>16.006651726520001</v>
@@ -1529,13 +1520,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2">
         <v>40.105236477299997</v>
@@ -1546,13 +1537,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>165.02872043409999</v>
@@ -1563,13 +1554,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D41" s="2">
         <v>80.074157058840001</v>
@@ -1580,13 +1571,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2">
         <v>65.403039894689996</v>
@@ -1597,13 +1588,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>34.549420638569998</v>
@@ -1614,13 +1605,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2">
         <v>28.316662853970001</v>
@@ -1631,13 +1622,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" s="2">
         <v>11.483768278539999</v>
@@ -1648,13 +1639,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2">
         <v>225.01631662199</v>
@@ -1665,13 +1656,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" s="2">
         <v>7.9735128031300002</v>
@@ -1682,13 +1673,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" s="2">
         <v>189.25371301543001</v>
@@ -1699,13 +1690,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" s="2">
         <v>60.54451169248</v>
@@ -1716,13 +1707,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" s="2">
         <v>80.54457814992</v>
@@ -1733,13 +1724,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2">
         <v>12.367829372579999</v>
@@ -1750,13 +1741,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45.534760158509997</v>
@@ -1767,13 +1758,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>197.37084394363001</v>
@@ -1784,13 +1775,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D54" s="2">
         <v>4.3071291265999996</v>
@@ -1801,13 +1792,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="2">
         <v>481.04225390254999</v>
@@ -1818,13 +1809,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="2">
         <v>87.856530457120002</v>
@@ -1835,13 +1826,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2">
         <v>230.67917443767001</v>
@@ -1852,13 +1843,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D58" s="2">
         <v>11.082087195670001</v>
@@ -1869,13 +1860,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59" s="2">
         <v>164.75552434842999</v>
@@ -1886,13 +1877,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D60" s="2">
         <v>39.792822992520001</v>
@@ -1903,13 +1894,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2">
         <v>20.553140895409999</v>
@@ -1920,13 +1911,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2">
         <v>52.137600092939998</v>
@@ -1937,13 +1928,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" s="2">
         <v>59.375101542510002</v>
@@ -1954,13 +1945,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>3.4834235210800002</v>
@@ -1977,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2">
         <v>7.5462855094699997</v>
@@ -1994,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>9.7622443079300005</v>
@@ -2011,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D67" s="2">
         <v>100.75373111317001</v>
@@ -2028,7 +2019,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2">
         <v>29.828597132900001</v>
@@ -2045,7 +2036,7 @@
         <v>9</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>38.405349834589998</v>
@@ -2062,7 +2053,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2">
         <v>139.59226604582</v>
@@ -2086,26 +2077,13 @@
       </c>
       <c r="E71" s="2">
         <v>0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="4">
-        <v>4376.8963031273997</v>
-      </c>
-      <c r="E72" s="3">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/AtivosIndice.xlsx
+++ b/AtivosIndice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,433 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="156">
+  <si>
+    <t>Código </t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Qtde. Teórica</t>
+  </si>
+  <si>
+    <t>Part. (%)</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>AEDU3</t>
+  </si>
+  <si>
+    <t>ANHANGUERA</t>
+  </si>
+  <si>
+    <t>ON NM</t>
+  </si>
+  <si>
+    <t>ALLL3</t>
+  </si>
+  <si>
+    <t>ALL AMER LAT</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>BRASIL</t>
+  </si>
+  <si>
+    <t>BBDC3</t>
+  </si>
+  <si>
+    <t>BRADESCO</t>
+  </si>
+  <si>
+    <t>ON EJ N1</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>PN EJ N1</t>
+  </si>
+  <si>
+    <t>BISA3</t>
+  </si>
+  <si>
+    <t>BROOKFIELD</t>
+  </si>
+  <si>
+    <t>BRAP4</t>
+  </si>
+  <si>
+    <t>BRADESPAR</t>
+  </si>
+  <si>
+    <t>PN EDJ N1</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>BRF SA</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>BRASKEM</t>
+  </si>
+  <si>
+    <t>PNA N1</t>
+  </si>
+  <si>
+    <t>BRML3</t>
+  </si>
+  <si>
+    <t>BR MALLS PAR</t>
+  </si>
+  <si>
+    <t>BRPR3</t>
+  </si>
+  <si>
+    <t>BR PROPERT</t>
+  </si>
+  <si>
+    <t>BTOW3</t>
+  </si>
+  <si>
+    <t>B2W DIGITAL</t>
+  </si>
+  <si>
+    <t>BVMF3</t>
+  </si>
+  <si>
+    <t>BMFBOVESPA</t>
+  </si>
+  <si>
+    <t>ON ED NM</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>CCR SA</t>
+  </si>
+  <si>
+    <t>CESP6</t>
+  </si>
+  <si>
+    <t>CESP</t>
+  </si>
+  <si>
+    <t>PNB N1</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>CIELO</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>CEMIG</t>
+  </si>
+  <si>
+    <t>PN N1</t>
+  </si>
+  <si>
+    <t>CPFE3</t>
+  </si>
+  <si>
+    <t>CPFL ENERGIA</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>COPEL</t>
+  </si>
+  <si>
+    <t>CRUZ3</t>
+  </si>
+  <si>
+    <t>SOUZA CRUZ</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>COSAN</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>SID NACIONAL</t>
+  </si>
+  <si>
+    <t>CTIP3</t>
+  </si>
+  <si>
+    <t>CETIP</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>CYRELA REALT</t>
+  </si>
+  <si>
+    <t>DASA3</t>
+  </si>
+  <si>
+    <t>DASA</t>
+  </si>
+  <si>
+    <t>DTEX3</t>
+  </si>
+  <si>
+    <t>DURATEX</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>ELETROBRAS</t>
+  </si>
+  <si>
+    <t>ON N1</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>ELPL4</t>
+  </si>
+  <si>
+    <t>ELETROPAULO</t>
+  </si>
+  <si>
+    <t>PN N2</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>EMBRAER</t>
+  </si>
+  <si>
+    <t>ENBR3</t>
+  </si>
+  <si>
+    <t>ENERGIAS BR</t>
+  </si>
+  <si>
+    <t>FIBR3</t>
+  </si>
+  <si>
+    <t>FIBRIA</t>
+  </si>
+  <si>
+    <t>GFSA3</t>
+  </si>
+  <si>
+    <t>GAFISA</t>
+  </si>
+  <si>
+    <t>GGBR4</t>
+  </si>
+  <si>
+    <t>GERDAU</t>
+  </si>
+  <si>
+    <t>GOAU4</t>
+  </si>
+  <si>
+    <t>GERDAU MET</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>GOL</t>
+  </si>
+  <si>
+    <t>HGTX3</t>
+  </si>
+  <si>
+    <t>CIA HERING</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>HYPERMARCAS</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>ITAUSA</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>ITAUUNIBANCO</t>
+  </si>
+  <si>
+    <t>PN ED N1</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>JBS</t>
+  </si>
+  <si>
+    <t>KLBN4</t>
+  </si>
+  <si>
+    <t>KLABIN S/A</t>
+  </si>
+  <si>
+    <t>KROT3</t>
+  </si>
+  <si>
+    <t>KROTON</t>
+  </si>
+  <si>
+    <t>LAME4</t>
+  </si>
+  <si>
+    <t>LOJAS AMERIC</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>LIGT3</t>
+  </si>
+  <si>
+    <t>LIGHT S/A</t>
+  </si>
+  <si>
+    <t>LLXL3</t>
+  </si>
+  <si>
+    <t>LLX LOG</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>LOJAS RENNER</t>
+  </si>
+  <si>
+    <t>MMXM3</t>
+  </si>
+  <si>
+    <t>MMX MINER</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>MARFRIG</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>MRV</t>
+  </si>
+  <si>
+    <t>NATU3</t>
+  </si>
+  <si>
+    <t>NATURA</t>
+  </si>
+  <si>
+    <t>OIBR3</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>OIBR4</t>
+  </si>
+  <si>
+    <t>PCAR4</t>
+  </si>
+  <si>
+    <t>P.ACUCAR-CBD</t>
+  </si>
+  <si>
+    <t>PDGR3</t>
+  </si>
+  <si>
+    <t>PDG REALT</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t>PETROBRAS</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>LOCALIZA</t>
+  </si>
+  <si>
+    <t>RSID3</t>
+  </si>
+  <si>
+    <t>ROSSI RESID</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>SANTANDER BR</t>
+  </si>
+  <si>
+    <t>UNT N2</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>SABESP</t>
+  </si>
+  <si>
+    <t>SUZB5</t>
+  </si>
+  <si>
+    <t>SUZANO PAPEL</t>
+  </si>
+  <si>
+    <t>TIMP3</t>
+  </si>
+  <si>
+    <t>TIM PART S/A</t>
+  </si>
+  <si>
+    <t>TRPL4</t>
+  </si>
   <si>
     <t>TRAN PAULIST</t>
   </si>
@@ -61,443 +487,33 @@
   </si>
   <si>
     <t>PN EDJ</t>
-  </si>
-  <si>
-    <t>Código </t>
-  </si>
-  <si>
-    <t>Ação</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Qtde. Teórica</t>
-  </si>
-  <si>
-    <t>Part. (%)</t>
-  </si>
-  <si>
-    <t>AEDU3</t>
-  </si>
-  <si>
-    <t>ANHANGUERA</t>
-  </si>
-  <si>
-    <t>ON NM</t>
-  </si>
-  <si>
-    <t>ALLL3</t>
-  </si>
-  <si>
-    <t>ALL AMER LAT</t>
-  </si>
-  <si>
-    <t>AMBV4</t>
-  </si>
-  <si>
-    <t>AMBEV</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>BRASIL</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>BRADESCO</t>
-  </si>
-  <si>
-    <t>ON N1</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>PN N1</t>
-  </si>
-  <si>
-    <t>BISA3</t>
-  </si>
-  <si>
-    <t>BROOKFIELD</t>
-  </si>
-  <si>
-    <t>BRAP4</t>
-  </si>
-  <si>
-    <t>BRADESPAR</t>
-  </si>
-  <si>
-    <t>PN EDJ N1</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>BRF SA</t>
-  </si>
-  <si>
-    <t>BRKM5</t>
-  </si>
-  <si>
-    <t>BRASKEM</t>
-  </si>
-  <si>
-    <t>PNA N1</t>
-  </si>
-  <si>
-    <t>BRML3</t>
-  </si>
-  <si>
-    <t>BR MALLS PAR</t>
-  </si>
-  <si>
-    <t>BRPR3</t>
-  </si>
-  <si>
-    <t>BR PROPERT</t>
-  </si>
-  <si>
-    <t>BTOW3</t>
-  </si>
-  <si>
-    <t>B2W DIGITAL</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>CCR SA</t>
-  </si>
-  <si>
-    <t>CESP6</t>
-  </si>
-  <si>
-    <t>CESP</t>
-  </si>
-  <si>
-    <t>PNB N1</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t>CIELO</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>CEMIG</t>
-  </si>
-  <si>
-    <t>CPFE3</t>
-  </si>
-  <si>
-    <t>CPFL ENERGIA</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>COPEL</t>
-  </si>
-  <si>
-    <t>CRUZ3</t>
-  </si>
-  <si>
-    <t>SOUZA CRUZ</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>COSAN</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>SID NACIONAL</t>
-  </si>
-  <si>
-    <t>CTIP3</t>
-  </si>
-  <si>
-    <t>CETIP</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>CYRELA REALT</t>
-  </si>
-  <si>
-    <t>DASA3</t>
-  </si>
-  <si>
-    <t>DASA</t>
-  </si>
-  <si>
-    <t>DTEX3</t>
-  </si>
-  <si>
-    <t>DURATEX</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>ELETROBRAS</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>ELPL4</t>
-  </si>
-  <si>
-    <t>ELETROPAULO</t>
-  </si>
-  <si>
-    <t>PN N2</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>EMBRAER</t>
-  </si>
-  <si>
-    <t>ENBR3</t>
-  </si>
-  <si>
-    <t>ENERGIAS BR</t>
-  </si>
-  <si>
-    <t>FIBR3</t>
-  </si>
-  <si>
-    <t>FIBRIA</t>
-  </si>
-  <si>
-    <t>GFSA3</t>
-  </si>
-  <si>
-    <t>GAFISA</t>
-  </si>
-  <si>
-    <t>GGBR4</t>
-  </si>
-  <si>
-    <t>GERDAU</t>
-  </si>
-  <si>
-    <t>GOAU4</t>
-  </si>
-  <si>
-    <t>GERDAU MET</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>GOL</t>
-  </si>
-  <si>
-    <t>HGTX3</t>
-  </si>
-  <si>
-    <t>CIA HERING</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>HYPERMARCAS</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>ITAUSA</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>ITAUUNIBANCO</t>
-  </si>
-  <si>
-    <t>PN ED N1</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>JBS</t>
-  </si>
-  <si>
-    <t>KLBN4</t>
-  </si>
-  <si>
-    <t>KLABIN S/A</t>
-  </si>
-  <si>
-    <t>LAME4</t>
-  </si>
-  <si>
-    <t>LOJAS AMERIC</t>
-  </si>
-  <si>
-    <t>LIGT3</t>
-  </si>
-  <si>
-    <t>LIGHT S/A</t>
-  </si>
-  <si>
-    <t>LLXL3</t>
-  </si>
-  <si>
-    <t>LLX LOG</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>LOJAS RENNER</t>
-  </si>
-  <si>
-    <t>MMXM3</t>
-  </si>
-  <si>
-    <t>MMX MINER</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>MARFRIG</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>MRV</t>
-  </si>
-  <si>
-    <t>NATU3</t>
-  </si>
-  <si>
-    <t>NATURA</t>
-  </si>
-  <si>
-    <t>OIBR3</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t>OIBR4</t>
-  </si>
-  <si>
-    <t>PCAR4</t>
-  </si>
-  <si>
-    <t>P.ACUCAR-CBD</t>
-  </si>
-  <si>
-    <t>PDGR3</t>
-  </si>
-  <si>
-    <t>PDG REALT</t>
-  </si>
-  <si>
-    <t>PETR3</t>
-  </si>
-  <si>
-    <t>PETROBRAS</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>LOCALIZA</t>
-  </si>
-  <si>
-    <t>ON ED NM</t>
-  </si>
-  <si>
-    <t>RSID3</t>
-  </si>
-  <si>
-    <t>ROSSI RESID</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>SANTANDER BR</t>
-  </si>
-  <si>
-    <t>UNT N2</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>SABESP</t>
-  </si>
-  <si>
-    <t>SUZB5</t>
-  </si>
-  <si>
-    <t>SUZANO PAPEL</t>
-  </si>
-  <si>
-    <t>TIMP3</t>
-  </si>
-  <si>
-    <t>TIM PART S/A</t>
-  </si>
-  <si>
-    <t>TRPL4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -612,6 +628,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -646,6 +663,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -857,1230 +875,1246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="1" max="1" width="62" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>25.424107783779998</v>
       </c>
       <c r="E2" s="2">
-        <v>0.628</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>42.277933360520002</v>
       </c>
       <c r="E3" s="2">
-        <v>0.625</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>10.307069157120001</v>
+        <v>62.333772571360001</v>
       </c>
       <c r="E4" s="2">
-        <v>1.5880000000000001</v>
+        <v>3.327</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>62.333772571360001</v>
+        <v>13.57180395222</v>
       </c>
       <c r="E5" s="2">
-        <v>3.4180000000000001</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>13.564575132330001</v>
+        <v>68.023213190890004</v>
       </c>
       <c r="E6" s="2">
-        <v>0.89800000000000002</v>
+        <v>3.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>67.979579261289999</v>
+        <v>186.89289017022</v>
       </c>
       <c r="E7" s="2">
-        <v>4.0449999999999999</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>186.89289017022</v>
+        <v>16.237145568470002</v>
       </c>
       <c r="E8" s="2">
-        <v>0.48599999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>16.237145568470002</v>
+        <v>12.97182843407</v>
       </c>
       <c r="E9" s="2">
-        <v>0.77600000000000002</v>
+        <v>1.302</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>12.97182843407</v>
+        <v>21.976087504230001</v>
       </c>
       <c r="E10" s="2">
-        <v>1.258</v>
+        <v>0.82899999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
-        <v>21.976087504230001</v>
+        <v>42.449709558910001</v>
       </c>
       <c r="E11" s="2">
-        <v>0.80500000000000005</v>
+        <v>1.5649999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>42.449709558910001</v>
+        <v>22.453099589000001</v>
       </c>
       <c r="E12" s="2">
-        <v>1.698</v>
+        <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>22.453099589000001</v>
+        <v>12.94432335172</v>
       </c>
       <c r="E13" s="2">
-        <v>0.78600000000000003</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
-        <v>12.94432335172</v>
+        <v>128.43576817228001</v>
       </c>
       <c r="E14" s="2">
-        <v>0.4</v>
+        <v>2.8319999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
         <v>48.188282306790001</v>
       </c>
       <c r="E15" s="2">
-        <v>1.655</v>
+        <v>1.6180000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2">
         <v>12.15475450578</v>
       </c>
       <c r="E16" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2">
         <v>14.28197192953</v>
       </c>
       <c r="E17" s="2">
-        <v>1.79</v>
+        <v>1.7869999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2">
         <v>46.592822277810001</v>
       </c>
       <c r="E18" s="2">
-        <v>1.7110000000000001</v>
+        <v>1.6910000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>12.98786177981</v>
       </c>
       <c r="E19" s="2">
-        <v>0.45800000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2">
         <v>7.2230570944799997</v>
       </c>
       <c r="E20" s="2">
-        <v>0.41599999999999998</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2">
         <v>13.92601177809</v>
       </c>
       <c r="E21" s="2">
-        <v>0.622</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2">
         <v>9.5393767501099997</v>
       </c>
       <c r="E22" s="2">
-        <v>0.79</v>
+        <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2">
         <v>97.456095260639998</v>
       </c>
       <c r="E23" s="2">
-        <v>2.19</v>
+        <v>2.3820000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2">
         <v>18.72505216659</v>
       </c>
       <c r="E24" s="2">
-        <v>0.85699999999999998</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2">
         <v>40.066565333520003</v>
       </c>
       <c r="E25" s="2">
-        <v>1.2370000000000001</v>
+        <v>1.198</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2">
         <v>29.454499683190001</v>
       </c>
       <c r="E26" s="2">
-        <v>0.624</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2">
         <v>25.777458101250001</v>
       </c>
       <c r="E27" s="2">
-        <v>0.66400000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2">
         <v>62.044246068870002</v>
       </c>
       <c r="E28" s="2">
-        <v>0.81200000000000006</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2">
         <v>39.030522675429999</v>
       </c>
       <c r="E29" s="2">
-        <v>0.85699999999999998</v>
+        <v>0.77300000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2">
         <v>41.497784571910003</v>
       </c>
       <c r="E30" s="2">
-        <v>0.76500000000000001</v>
+        <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2">
         <v>21.3299241514</v>
       </c>
       <c r="E31" s="2">
-        <v>0.64300000000000002</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2">
         <v>32.302201499410003</v>
       </c>
       <c r="E32" s="2">
-        <v>0.76200000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2">
         <v>15.852536052930001</v>
       </c>
       <c r="E33" s="2">
-        <v>0.84899999999999998</v>
+        <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2">
         <v>236.63302785313999</v>
       </c>
       <c r="E34" s="2">
-        <v>1.3220000000000001</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2">
-        <v>70.039116337620001</v>
+        <v>70.499647513529993</v>
       </c>
       <c r="E35" s="2">
-        <v>2.2810000000000001</v>
+        <v>2.4449999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2">
-        <v>13.80802218809</v>
+        <v>13.904245339219999</v>
       </c>
       <c r="E36" s="2">
-        <v>0.58199999999999996</v>
+        <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2">
         <v>41.171128205759999</v>
       </c>
       <c r="E37" s="2">
-        <v>0.86</v>
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2">
         <v>16.006651726520001</v>
       </c>
       <c r="E38" s="2">
-        <v>0.96</v>
+        <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2">
         <v>40.105236477299997</v>
       </c>
       <c r="E39" s="2">
-        <v>1.4450000000000001</v>
+        <v>1.413</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2">
         <v>165.02872043409999</v>
       </c>
       <c r="E40" s="2">
-        <v>2.9350000000000001</v>
+        <v>2.8479999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2">
         <v>80.074157058840001</v>
       </c>
       <c r="E41" s="2">
-        <v>5.1040000000000001</v>
+        <v>4.915</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2">
         <v>65.403039894689996</v>
       </c>
       <c r="E42" s="2">
-        <v>0.97</v>
+        <v>1.0189999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D43" s="2">
-        <v>34.549420638569998</v>
+        <v>34.844960846329997</v>
       </c>
       <c r="E43" s="2">
-        <v>0.75800000000000001</v>
+        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2">
-        <v>28.316662853970001</v>
+        <v>11.286768287499999</v>
       </c>
       <c r="E44" s="2">
-        <v>0.86499999999999999</v>
+        <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="D45" s="2">
-        <v>11.483768278539999</v>
+        <v>28.316662853970001</v>
       </c>
       <c r="E45" s="2">
-        <v>0.41799999999999998</v>
+        <v>0.83099999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2">
-        <v>225.01631662199</v>
+        <v>11.483768278539999</v>
       </c>
       <c r="E46" s="2">
-        <v>0.49</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2">
-        <v>7.9735128031300002</v>
+        <v>225.01631662199</v>
       </c>
       <c r="E47" s="2">
-        <v>0.99199999999999999</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2">
-        <v>189.25371301543001</v>
+        <v>7.9735128031300002</v>
       </c>
       <c r="E48" s="2">
-        <v>0.29699999999999999</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2">
-        <v>60.54451169248</v>
+        <v>189.25371301543001</v>
       </c>
       <c r="E49" s="2">
-        <v>0.50800000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2">
-        <v>80.54457814992</v>
+        <v>60.54451169248</v>
       </c>
       <c r="E50" s="2">
-        <v>1.4359999999999999</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2">
-        <v>12.367829372579999</v>
+        <v>80.54457814992</v>
       </c>
       <c r="E51" s="2">
-        <v>1.0209999999999999</v>
+        <v>1.3640000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2">
-        <v>45.534760158509997</v>
+        <v>12.367829372579999</v>
       </c>
       <c r="E52" s="2">
-        <v>0.33700000000000002</v>
+        <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D53" s="2">
-        <v>197.37084394363001</v>
+        <v>45.534760158509997</v>
       </c>
       <c r="E53" s="2">
-        <v>1.3680000000000001</v>
+        <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D54" s="2">
-        <v>4.3071291265999996</v>
+        <v>197.37084394363001</v>
       </c>
       <c r="E54" s="2">
-        <v>0.88200000000000001</v>
+        <v>1.377</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D55" s="2">
-        <v>481.04225390254999</v>
+        <v>4.3071291265999996</v>
       </c>
       <c r="E55" s="2">
-        <v>1.8</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2">
-        <v>87.856530457120002</v>
+        <v>481.04225390254999</v>
       </c>
       <c r="E56" s="2">
-        <v>3.1640000000000001</v>
+        <v>1.627</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D57" s="2">
-        <v>230.67917443767001</v>
+        <v>87.856530457120002</v>
       </c>
       <c r="E57" s="2">
-        <v>8.6859999999999999</v>
+        <v>3.222</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="D58" s="2">
-        <v>11.082087195670001</v>
+        <v>230.67917443767001</v>
       </c>
       <c r="E58" s="2">
-        <v>0.72099999999999997</v>
+        <v>8.8070000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D59" s="2">
-        <v>164.75552434842999</v>
+        <v>11.082087195670001</v>
       </c>
       <c r="E59" s="2">
-        <v>0.83799999999999997</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2">
-        <v>39.792822992520001</v>
+        <v>164.75552434842999</v>
       </c>
       <c r="E60" s="2">
-        <v>1.1259999999999999</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="D61" s="2">
-        <v>20.553140895409999</v>
+        <v>39.792822992520001</v>
       </c>
       <c r="E61" s="2">
-        <v>0.89900000000000002</v>
+        <v>1.141</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2">
-        <v>52.137600092939998</v>
+        <v>20.553140895409999</v>
       </c>
       <c r="E62" s="2">
-        <v>0.873</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
-        <v>59.375101542510002</v>
+        <v>52.137600092939998</v>
       </c>
       <c r="E63" s="2">
-        <v>1.25</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2">
-        <v>3.4834235210800002</v>
+        <v>59.375101542510002</v>
       </c>
       <c r="E64" s="2">
-        <v>0.20699999999999999</v>
+        <v>1.246</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D65" s="2">
-        <v>7.5462855094699997</v>
+        <v>3.4834235210800002</v>
       </c>
       <c r="E65" s="2">
-        <v>0.83</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2">
-        <v>9.7622443079300005</v>
+        <v>7.5462855094699997</v>
       </c>
       <c r="E66" s="2">
-        <v>0.20599999999999999</v>
+        <v>0.83099999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D67" s="2">
-        <v>100.75373111317001</v>
+        <v>9.7622443079300005</v>
       </c>
       <c r="E67" s="2">
-        <v>2.206</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>29.828597132900001</v>
+        <v>100.75373111317001</v>
       </c>
       <c r="E68" s="2">
-        <v>0.20699999999999999</v>
+        <v>2.411</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2">
-        <v>38.405349834589998</v>
+        <v>29.828597132900001</v>
       </c>
       <c r="E69" s="2">
-        <v>2.5310000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D70" s="2">
-        <v>139.59226604582</v>
+        <v>38.405349834589998</v>
       </c>
       <c r="E70" s="2">
-        <v>8.4469999999999992</v>
+        <v>2.6970000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
+        <v>139.59226604582</v>
+      </c>
+      <c r="E71" s="2">
+        <v>8.8190000000000008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="2">
         <v>10.084339230759999</v>
       </c>
-      <c r="E71" s="2">
-        <v>0.89500000000000002</v>
+      <c r="E72" s="2">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
